--- a/replication_output.xlsx
+++ b/replication_output.xlsx
@@ -43,19 +43,19 @@
     <t>MEAN:</t>
   </si>
   <si>
-    <t>0    0.066
-1    0.049
-2    0.057
-3    0.056
-4    0.076
+    <t>0    0.101
+1    0.162
+2    0.391
+3    0.406
+4    0.815
 Name: R3_2, dtype: float64</t>
   </si>
   <si>
-    <t>0    0.749
-1    0.607
-2    0.728
-3    0.672
-4    0.714
+    <t>0    0.792
+1    0.333
+2    0.256
+3    0.193
+4    0.158
 Name: R4_2, dtype: float64</t>
   </si>
 </sst>
@@ -451,25 +451,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.724</v>
+        <v>19.853</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.066</v>
+        <v>0.101</v>
       </c>
       <c r="F2">
-        <v>0.118</v>
+        <v>0.227</v>
       </c>
       <c r="G2">
-        <v>0.749</v>
+        <v>0.792</v>
       </c>
       <c r="H2">
-        <v>0.291</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -477,25 +477,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.355</v>
+        <v>7.097</v>
       </c>
       <c r="C3">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0.049</v>
+        <v>0.162</v>
       </c>
       <c r="F3">
-        <v>0.074</v>
+        <v>0.468</v>
       </c>
       <c r="G3">
-        <v>0.607</v>
+        <v>0.333</v>
       </c>
       <c r="H3">
-        <v>0.108</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -503,25 +503,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.159000000000001</v>
+        <v>8.694000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>0.057</v>
+        <v>0.391</v>
       </c>
       <c r="F4">
-        <v>0.098</v>
+        <v>1.302</v>
       </c>
       <c r="G4">
-        <v>0.728</v>
+        <v>0.256</v>
       </c>
       <c r="H4">
-        <v>0.222</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -529,25 +529,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.593</v>
+        <v>8.221</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>0.056</v>
+        <v>0.406</v>
       </c>
       <c r="F5">
-        <v>0.098</v>
+        <v>1.293</v>
       </c>
       <c r="G5">
-        <v>0.672</v>
+        <v>0.193</v>
       </c>
       <c r="H5">
-        <v>0.178</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -555,25 +555,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.119999999999999</v>
+        <v>11.043</v>
       </c>
       <c r="C6">
-        <v>0.001</v>
+        <v>0.045</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>0.076</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F6">
-        <v>0.14</v>
+        <v>2.146</v>
       </c>
       <c r="G6">
-        <v>0.714</v>
+        <v>0.158</v>
       </c>
       <c r="H6">
-        <v>0.244</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -581,25 +581,25 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7.9902</v>
+        <v>10.9816</v>
       </c>
       <c r="C7">
-        <v>0.0006000000000000001</v>
+        <v>0.0106</v>
       </c>
       <c r="D7">
-        <v>4.2</v>
+        <v>21.6</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>0.1056</v>
+        <v>1.0872</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>0.2086</v>
+        <v>0.3467999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/replication_output.xlsx
+++ b/replication_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Replication</t>
   </si>
@@ -43,20 +43,7 @@
     <t>MEAN:</t>
   </si>
   <si>
-    <t>0    0.101
-1    0.162
-2    0.391
-3    0.406
-4    0.815
-Name: R3_2, dtype: float64</t>
-  </si>
-  <si>
-    <t>0    0.792
-1    0.333
-2    0.256
-3    0.193
-4    0.158
-Name: R4_2, dtype: float64</t>
+    <t>Variance:</t>
   </si>
 </sst>
 </file>
@@ -414,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,25 +438,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.853</v>
+        <v>27.342</v>
       </c>
       <c r="C2">
-        <v>0.008</v>
+        <v>1.509</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.227</v>
+        <v>0.499</v>
       </c>
       <c r="G2">
-        <v>0.792</v>
+        <v>0.64</v>
       </c>
       <c r="H2">
-        <v>1.632</v>
+        <v>5.487</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -477,25 +464,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.097</v>
+        <v>27.66</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.451</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.468</v>
+        <v>0.506</v>
       </c>
       <c r="G3">
-        <v>0.333</v>
+        <v>0.67</v>
       </c>
       <c r="H3">
-        <v>0.029</v>
+        <v>5.907</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -503,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.694000000000001</v>
+        <v>28.532</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.542</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.302</v>
+        <v>0.553</v>
       </c>
       <c r="G4">
-        <v>0.256</v>
+        <v>0.711</v>
       </c>
       <c r="H4">
-        <v>0.045</v>
+        <v>6.773</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -529,25 +516,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.221</v>
+        <v>27.788</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.406</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.293</v>
+        <v>0.503</v>
       </c>
       <c r="G5">
-        <v>0.193</v>
+        <v>0.655</v>
       </c>
       <c r="H5">
-        <v>0.002</v>
+        <v>5.794</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -555,51 +542,337 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.043</v>
+        <v>27.566</v>
       </c>
       <c r="C6">
-        <v>0.045</v>
+        <v>1.529</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8149999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.146</v>
+        <v>0.52</v>
       </c>
       <c r="G6">
-        <v>0.158</v>
+        <v>0.675</v>
       </c>
       <c r="H6">
-        <v>0.026</v>
+        <v>5.477</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>26.666</v>
+      </c>
+      <c r="C7">
+        <v>1.502</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.528</v>
+      </c>
+      <c r="G7">
+        <v>0.674</v>
+      </c>
+      <c r="H7">
+        <v>4.991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>27.731</v>
+      </c>
+      <c r="C8">
+        <v>1.505</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.529</v>
+      </c>
+      <c r="G8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H8">
+        <v>5.862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>10.9816</v>
-      </c>
-      <c r="C7">
-        <v>0.0106</v>
-      </c>
-      <c r="D7">
-        <v>21.6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B9">
+        <v>26.783</v>
+      </c>
+      <c r="C9">
+        <v>1.473</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.471</v>
+      </c>
+      <c r="G9">
+        <v>0.618</v>
+      </c>
+      <c r="H9">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>1.0872</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B10">
+        <v>26.997</v>
+      </c>
+      <c r="C10">
+        <v>1.498</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.463</v>
+      </c>
+      <c r="G10">
+        <v>0.599</v>
+      </c>
+      <c r="H10">
+        <v>5.355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>0.3467999999999999</v>
+      <c r="B11">
+        <v>28.096</v>
+      </c>
+      <c r="C11">
+        <v>1.461</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.517</v>
+      </c>
+      <c r="G11">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H11">
+        <v>5.799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27.901</v>
+      </c>
+      <c r="C12">
+        <v>1.449</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.519</v>
+      </c>
+      <c r="G12">
+        <v>0.669</v>
+      </c>
+      <c r="H12">
+        <v>5.921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27.884</v>
+      </c>
+      <c r="C13">
+        <v>1.47</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.529</v>
+      </c>
+      <c r="G13">
+        <v>0.703</v>
+      </c>
+      <c r="H13">
+        <v>6.022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>27.64</v>
+      </c>
+      <c r="C14">
+        <v>1.521</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.525</v>
+      </c>
+      <c r="G14">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H14">
+        <v>5.757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27.141</v>
+      </c>
+      <c r="C15">
+        <v>1.474</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.524</v>
+      </c>
+      <c r="G15">
+        <v>0.681</v>
+      </c>
+      <c r="H15">
+        <v>5.547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27.034</v>
+      </c>
+      <c r="C16">
+        <v>1.472</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.502</v>
+      </c>
+      <c r="G16">
+        <v>0.664</v>
+      </c>
+      <c r="H16">
+        <v>5.361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>27.5174</v>
+      </c>
+      <c r="C17">
+        <v>1.491066666666667</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.5125333333333334</v>
+      </c>
+      <c r="G17">
+        <v>0.668</v>
+      </c>
+      <c r="H17">
+        <v>5.682866666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.2495647733333334</v>
+      </c>
+      <c r="C18">
+        <v>0.0007783288888888868</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.0004953155555555561</v>
+      </c>
+      <c r="G18">
+        <v>0.0008439999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.1670442488888889</v>
       </c>
     </row>
   </sheetData>
